--- a/biology/Neurosciences/Manie_dansante/Manie_dansante.xlsx
+++ b/biology/Neurosciences/Manie_dansante/Manie_dansante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La manie dansante, chorémanie, ou encore épidémie de danse de Saint-Guy, est un phénomène d'hystérie collective qui a principalement été observé en Allemagne et en Alsace entre le XIVe et le XVIIIe siècle. Un groupe de personnes se mettaient subitement à danser de façon incontrôlée et étrange. Ce mal affectait aussi bien des hommes, des femmes ou des enfants, qui se mettaient à danser jusqu'à s'écrouler de fatigue et continuaient à se tortiller même une fois à terre.
 </t>
@@ -511,12 +523,14 @@
           <t>Recensements du phénomène</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs manifestations importantes de manie dansante ont été répertoriées au cours des siècles, notamment le 15 juin 1237 à Erfurt[1], le 24 juin 1374 aux Pays-Bas et/ou à Aix-la-Chapelle, en 1417 et 1418 en Alsace[1], et en 1518 à Strasbourg, où elle aurait concerné les femmes[1] (voir l'article Épidémie dansante de 1518). D'autres cas furent répertoriés à travers toute l'Europe comme aux Pays-Bas, à Cologne, ou à Metz.
-Le journal Le Monde indique que l'épidémie de Strasbourg de 1518 « est l'une des mieux documentées. C'est même la seule à avoir pu être reconstituée aussi précisément. […] Au total, une vingtaine d'épisodes comparables ont été rapportés entre 1200 et 1600. Le dernier serait survenu à Madagascar, en 1863 »[2].
-Selon la tradition[1], cette épidémie, attribuée alors à l'influence du diable, serait apparue au Ve siècle « dans les couvents et chez les ermites ». La chapelle de Saint-Guy (Vitsgrotte) à Saverne était un lieu de pèlerinage pour les malades atteints de cette affection.
-Auguste Stoeber mentionne à ce sujet[1] des rimes de Kleinlawel[Qui ?] issues de la Chronique de Strasbourg : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs manifestations importantes de manie dansante ont été répertoriées au cours des siècles, notamment le 15 juin 1237 à Erfurt, le 24 juin 1374 aux Pays-Bas et/ou à Aix-la-Chapelle, en 1417 et 1418 en Alsace, et en 1518 à Strasbourg, où elle aurait concerné les femmes (voir l'article Épidémie dansante de 1518). D'autres cas furent répertoriés à travers toute l'Europe comme aux Pays-Bas, à Cologne, ou à Metz.
+Le journal Le Monde indique que l'épidémie de Strasbourg de 1518 « est l'une des mieux documentées. C'est même la seule à avoir pu être reconstituée aussi précisément. […] Au total, une vingtaine d'épisodes comparables ont été rapportés entre 1200 et 1600. Le dernier serait survenu à Madagascar, en 1863 ».
+Selon la tradition, cette épidémie, attribuée alors à l'influence du diable, serait apparue au Ve siècle « dans les couvents et chez les ermites ». La chapelle de Saint-Guy (Vitsgrotte) à Saverne était un lieu de pèlerinage pour les malades atteints de cette affection.
+Auguste Stoeber mentionne à ce sujet des rimes de Kleinlawel[Qui ?] issues de la Chronique de Strasbourg : 
 Une étrange maladie en ce temps
 A envahi le peuple
 Beaucoup de gens, par folie
